--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/60_Muş_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/60_Muş_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA110478-E95D-4E2F-A44F-83C83B203905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA9E75A-A2C5-4FE2-A228-FE637D1878BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{ACD4DF10-D193-438E-9EB1-0BE49BFF7178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="676" xr2:uid="{1A4A9FF6-F987-4F7A-8DB6-F5A0BBB6685B}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -841,13 +841,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2B586E5B-61A8-4A84-BEDA-A0A698C38E84}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D731B3C4-9216-459E-9A01-D08632D757AA}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D4650B31-EB24-4848-A1C2-902231BECA08}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{BB52B1CA-7009-4861-930A-2CFD15B20B85}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{471C19F2-EE47-4F3A-9A3A-C610BE08D8D8}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{3DF209D7-6DC1-474B-9DF3-6414E5461D28}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E5716DB9-D33B-4A83-9C6C-D91CB859FE2D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{ED85C6FA-0391-4DA0-B65D-B08E1C359A45}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00114A65-BF3F-4ABC-A11E-2681C4E595C9}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{CD89EE90-EF91-45C9-A482-B82BA8877507}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6527BE7B-9C18-4C90-A5C7-AE0171AFEFD0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{445EC838-22B6-4B2B-B6AD-0791FB75C131}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{5BA2121F-5F6B-4025-8F98-415F5B8D0E50}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0814D9E8-A0F3-40B3-9843-66E191D10D18}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6EF274-20A2-4D86-A9AB-A2B7CD74CC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21922CC-3EF4-451A-8883-9136E5FD6CC7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2440,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82043958-26FE-4E9F-9906-9F906F3F8630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BBF58E-B7E4-4BBC-9B5E-4B93F39FB05F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3665,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099671C-6A4C-49B0-A147-6D30604B1CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67C08F0-2D6E-47E5-9D4F-783E73F5E1D0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4890,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6414C3D-0E70-4A43-850B-70292BD4834D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7934F8B0-9A06-4D82-A5CC-93991071C3CA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6113,7 +6113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BF0BD2-304D-4B92-BE5C-E3DCA8BB0247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B16722-6CB3-451B-836B-5868E932AB96}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7322,7 +7322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435FC8DE-0D3E-4134-B195-31A7D3BCE616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD76A881-3F04-4EF5-9227-22E43477DE25}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
